--- a/Documents/Will's User Story for Game Functions.xlsx
+++ b/Documents/Will's User Story for Game Functions.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27618"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7F612FD-2263-4013-87CB-276924EFF058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA3F42D6-114C-4866-8312-126B8AE351C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -135,7 +135,7 @@
     <t>Player1 finds a diagonal up word and selects the first and last characters in it</t>
   </si>
   <si>
-    <t>Only the characters Player1 selects are highlighted and no score is added</t>
+    <t>The word is highligted blue on both screens, and a point is added to Player1's score</t>
   </si>
   <si>
     <t>Player 2 finds a diagonal down word and selects the first and last characters in it</t>
@@ -401,9 +401,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -741,7 +741,7 @@
   <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37:C37"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -780,7 +780,7 @@
       <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -879,7 +879,7 @@
       <c r="B12" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>32</v>
       </c>
     </row>
@@ -890,7 +890,7 @@
       <c r="B13" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="7" t="s">
         <v>34</v>
       </c>
     </row>
@@ -960,7 +960,7 @@
       <c r="B20" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="5" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1089,7 +1089,7 @@
       <c r="B33" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="5" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1111,7 +1111,7 @@
       <c r="B35" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="5" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="C42" s="7" t="s">
+      <c r="C42" s="6" t="s">
         <v>92</v>
       </c>
     </row>

--- a/Documents/Will's User Story for Game Functions.xlsx
+++ b/Documents/Will's User Story for Game Functions.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27618"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27624"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA3F42D6-114C-4866-8312-126B8AE351C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C044BBF8-F060-4000-B837-4370F0600D80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -395,7 +395,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -403,7 +403,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -740,8 +739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -890,7 +889,7 @@
       <c r="B13" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" t="s">
         <v>34</v>
       </c>
     </row>
